--- a/GerminaR.xlsx
+++ b/GerminaR.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="73">
   <si>
     <t>RPT</t>
   </si>
@@ -241,9 +241,6 @@
   <si>
     <t>SALT</t>
   </si>
-  <si>
-    <t>GRS</t>
-  </si>
 </sst>
 </file>
 
@@ -430,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,9 +500,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,13 +780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
+      <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -803,7 +797,7 @@
     <col min="5" max="30" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,11 +888,8 @@
       <c r="AD1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -990,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1450,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1542,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1726,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1818,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1910,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2002,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2094,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>

--- a/GerminaR.xlsx
+++ b/GerminaR.xlsx
@@ -786,7 +786,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/GerminaR.xlsx
+++ b/GerminaR.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="70">
   <si>
     <t>RPT</t>
   </si>
@@ -47,9 +47,6 @@
     <t>T0</t>
   </si>
   <si>
-    <t>0mM</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
@@ -68,13 +65,7 @@
     <t>T2</t>
   </si>
   <si>
-    <t>100mM</t>
-  </si>
-  <si>
     <t>T1</t>
-  </si>
-  <si>
-    <t>50mM</t>
   </si>
   <si>
     <t>R2</t>
@@ -786,7 +777,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -805,88 +796,88 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="U1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -896,8 +887,8 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+      <c r="C2" s="2">
+        <v>0</v>
       </c>
       <c r="D2" s="4">
         <v>25</v>
@@ -986,10 +977,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
       </c>
       <c r="D3" s="4">
         <v>25</v>
@@ -1078,10 +1069,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <v>25</v>
@@ -1170,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
       </c>
       <c r="D5" s="4">
         <v>25</v>
@@ -1262,10 +1253,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
@@ -1354,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
       </c>
       <c r="D7" s="4">
         <v>25</v>
@@ -1448,8 +1439,8 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
+      <c r="C8" s="2">
+        <v>100</v>
       </c>
       <c r="D8" s="4">
         <v>25</v>
@@ -1538,10 +1529,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
       </c>
       <c r="D9" s="4">
         <v>25</v>
@@ -1630,10 +1621,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
       </c>
       <c r="D10" s="4">
         <v>25</v>
@@ -1722,10 +1713,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100</v>
       </c>
       <c r="D11" s="4">
         <v>25</v>
@@ -1814,10 +1805,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>100</v>
       </c>
       <c r="D12" s="4">
         <v>25</v>
@@ -1908,8 +1899,8 @@
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
+      <c r="C13" s="2">
+        <v>50</v>
       </c>
       <c r="D13" s="4">
         <v>25</v>
@@ -1998,10 +1989,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>50</v>
       </c>
       <c r="D14" s="4">
         <v>25</v>
@@ -2090,10 +2081,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>50</v>
       </c>
       <c r="D15" s="4">
         <v>25</v>
@@ -2182,10 +2173,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>50</v>
       </c>
       <c r="D16" s="4">
         <v>25</v>
@@ -2274,10 +2265,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>50</v>
       </c>
       <c r="D17" s="4">
         <v>25</v>
@@ -2366,10 +2357,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>50</v>
       </c>
       <c r="D18" s="4">
         <v>25</v>
@@ -2455,13 +2446,13 @@
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
+      <c r="C19" s="2">
+        <v>0</v>
       </c>
       <c r="D19" s="4">
         <v>25</v>
@@ -2547,13 +2538,13 @@
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
       </c>
       <c r="D20" s="4">
         <v>25</v>
@@ -2639,13 +2630,13 @@
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
       </c>
       <c r="D21" s="4">
         <v>25</v>
@@ -2731,13 +2722,13 @@
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
       </c>
       <c r="D22" s="4">
         <v>25</v>
@@ -2823,13 +2814,13 @@
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
       </c>
       <c r="D23" s="4">
         <v>25</v>
@@ -2915,13 +2906,13 @@
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
       </c>
       <c r="D24" s="4">
         <v>25</v>
@@ -3007,13 +2998,13 @@
     </row>
     <row r="25" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>15</v>
+      <c r="C25" s="2">
+        <v>100</v>
       </c>
       <c r="D25" s="4">
         <v>25</v>
@@ -3099,13 +3090,13 @@
     </row>
     <row r="26" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C26" s="2">
+        <v>100</v>
       </c>
       <c r="D26" s="4">
         <v>25</v>
@@ -3191,13 +3182,13 @@
     </row>
     <row r="27" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>100</v>
       </c>
       <c r="D27" s="4">
         <v>25</v>
@@ -3283,13 +3274,13 @@
     </row>
     <row r="28" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>100</v>
       </c>
       <c r="D28" s="4">
         <v>25</v>
@@ -3375,13 +3366,13 @@
     </row>
     <row r="29" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
+      <c r="C29" s="2">
+        <v>50</v>
       </c>
       <c r="D29" s="4">
         <v>25</v>
@@ -3467,13 +3458,13 @@
     </row>
     <row r="30" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>50</v>
       </c>
       <c r="D30" s="4">
         <v>25</v>
@@ -3559,13 +3550,13 @@
     </row>
     <row r="31" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C31" s="2">
+        <v>50</v>
       </c>
       <c r="D31" s="4">
         <v>25</v>
@@ -3651,13 +3642,13 @@
     </row>
     <row r="32" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>50</v>
       </c>
       <c r="D32" s="4">
         <v>25</v>
@@ -3743,13 +3734,13 @@
     </row>
     <row r="33" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C33" s="2">
+        <v>50</v>
       </c>
       <c r="D33" s="4">
         <v>25</v>
@@ -3835,13 +3826,13 @@
     </row>
     <row r="34" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
+        <v>50</v>
       </c>
       <c r="D34" s="4">
         <v>25</v>
@@ -3927,13 +3918,13 @@
     </row>
     <row r="35" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
+      <c r="C35" s="2">
+        <v>0</v>
       </c>
       <c r="D35" s="4">
         <v>25</v>
@@ -4019,13 +4010,13 @@
     </row>
     <row r="36" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
       </c>
       <c r="D36" s="4">
         <v>25</v>
@@ -4111,13 +4102,13 @@
     </row>
     <row r="37" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
       </c>
       <c r="D37" s="4">
         <v>25</v>
@@ -4203,13 +4194,13 @@
     </row>
     <row r="38" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
       </c>
       <c r="D38" s="4">
         <v>25</v>
@@ -4295,13 +4286,13 @@
     </row>
     <row r="39" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
       </c>
       <c r="D39" s="4">
         <v>25</v>
@@ -4387,13 +4378,13 @@
     </row>
     <row r="40" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
       </c>
       <c r="D40" s="4">
         <v>25</v>
@@ -4479,13 +4470,13 @@
     </row>
     <row r="41" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>15</v>
+      <c r="C41" s="2">
+        <v>100</v>
       </c>
       <c r="D41" s="4">
         <v>25</v>
@@ -4571,13 +4562,13 @@
     </row>
     <row r="42" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C42" s="2">
+        <v>100</v>
       </c>
       <c r="D42" s="4">
         <v>25</v>
@@ -4663,13 +4654,13 @@
     </row>
     <row r="43" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C43" s="2">
+        <v>100</v>
       </c>
       <c r="D43" s="4">
         <v>25</v>
@@ -4755,13 +4746,13 @@
     </row>
     <row r="44" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C44" s="2">
+        <v>100</v>
       </c>
       <c r="D44" s="4">
         <v>25</v>
@@ -4847,13 +4838,13 @@
     </row>
     <row r="45" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
+      <c r="C45" s="2">
+        <v>50</v>
       </c>
       <c r="D45" s="4">
         <v>25</v>
@@ -4939,13 +4930,13 @@
     </row>
     <row r="46" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C46" s="2">
+        <v>50</v>
       </c>
       <c r="D46" s="4">
         <v>25</v>
@@ -5031,13 +5022,13 @@
     </row>
     <row r="47" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C47" s="2">
+        <v>50</v>
       </c>
       <c r="D47" s="4">
         <v>25</v>
@@ -5123,13 +5114,13 @@
     </row>
     <row r="48" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C48" s="2">
+        <v>50</v>
       </c>
       <c r="D48" s="4">
         <v>25</v>
@@ -5215,13 +5206,13 @@
     </row>
     <row r="49" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C49" s="2">
+        <v>50</v>
       </c>
       <c r="D49" s="4">
         <v>25</v>
@@ -5307,13 +5298,13 @@
     </row>
     <row r="50" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C50" s="2">
+        <v>50</v>
       </c>
       <c r="D50" s="4">
         <v>25</v>
@@ -5399,13 +5390,13 @@
     </row>
     <row r="51" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
+      <c r="C51" s="2">
+        <v>0</v>
       </c>
       <c r="D51" s="4">
         <v>25</v>
@@ -5491,13 +5482,13 @@
     </row>
     <row r="52" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
       </c>
       <c r="D52" s="4">
         <v>25</v>
@@ -5583,13 +5574,13 @@
     </row>
     <row r="53" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
       </c>
       <c r="D53" s="4">
         <v>25</v>
@@ -5675,13 +5666,13 @@
     </row>
     <row r="54" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
       </c>
       <c r="D54" s="4">
         <v>25</v>
@@ -5767,13 +5758,13 @@
     </row>
     <row r="55" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
       </c>
       <c r="D55" s="4">
         <v>25</v>
@@ -5859,13 +5850,13 @@
     </row>
     <row r="56" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
       </c>
       <c r="D56" s="4">
         <v>25</v>
@@ -5951,13 +5942,13 @@
     </row>
     <row r="57" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>15</v>
+      <c r="C57" s="2">
+        <v>100</v>
       </c>
       <c r="D57" s="4">
         <v>25</v>
@@ -6043,13 +6034,13 @@
     </row>
     <row r="58" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C58" s="2">
+        <v>100</v>
       </c>
       <c r="D58" s="4">
         <v>25</v>
@@ -6135,13 +6126,13 @@
     </row>
     <row r="59" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C59" s="2">
+        <v>100</v>
       </c>
       <c r="D59" s="4">
         <v>25</v>
@@ -6227,13 +6218,13 @@
     </row>
     <row r="60" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C60" s="2">
+        <v>100</v>
       </c>
       <c r="D60" s="4">
         <v>25</v>
@@ -6319,13 +6310,13 @@
     </row>
     <row r="61" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C61" s="2">
+        <v>100</v>
       </c>
       <c r="D61" s="4">
         <v>25</v>
@@ -6411,13 +6402,13 @@
     </row>
     <row r="62" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
+      <c r="C62" s="2">
+        <v>50</v>
       </c>
       <c r="D62" s="4">
         <v>25</v>
@@ -6503,13 +6494,13 @@
     </row>
     <row r="63" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C63" s="2">
+        <v>50</v>
       </c>
       <c r="D63" s="4">
         <v>25</v>
@@ -6595,13 +6586,13 @@
     </row>
     <row r="64" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C64" s="2">
+        <v>50</v>
       </c>
       <c r="D64" s="4">
         <v>25</v>
@@ -6687,13 +6678,13 @@
     </row>
     <row r="65" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C65" s="2">
+        <v>50</v>
       </c>
       <c r="D65" s="4">
         <v>25</v>
@@ -6779,13 +6770,13 @@
     </row>
     <row r="66" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C66" s="2">
+        <v>50</v>
       </c>
       <c r="D66" s="4">
         <v>25</v>
@@ -6871,13 +6862,13 @@
     </row>
     <row r="67" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C67" s="2">
+        <v>50</v>
       </c>
       <c r="D67" s="4">
         <v>25</v>
@@ -7078,10 +7069,10 @@
         <v>25</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG1" s="11" t="s">
         <v>4</v>
@@ -7193,7 +7184,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>7</v>
@@ -7294,7 +7285,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
@@ -7395,7 +7386,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
@@ -7496,7 +7487,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>7</v>
@@ -7597,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>7</v>
@@ -7701,7 +7692,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="13">
         <v>25</v>
@@ -7799,10 +7790,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="13">
         <v>25</v>
@@ -7900,10 +7891,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="13">
         <v>25</v>
@@ -8001,10 +7992,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="13">
         <v>25</v>
@@ -8102,10 +8093,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="D12" s="13">
         <v>25</v>
@@ -8206,7 +8197,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="13">
         <v>25</v>
@@ -8304,10 +8295,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="13">
         <v>25</v>
@@ -8405,10 +8396,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="13">
         <v>25</v>
@@ -8506,10 +8497,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="13">
         <v>25</v>
@@ -8607,10 +8598,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="13">
         <v>25</v>
@@ -8708,10 +8699,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="13">
         <v>25</v>
@@ -8806,7 +8797,7 @@
     </row>
     <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>6</v>
@@ -8907,10 +8898,10 @@
     </row>
     <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>7</v>
@@ -9008,10 +8999,10 @@
     </row>
     <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>7</v>
@@ -9109,10 +9100,10 @@
     </row>
     <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>7</v>
@@ -9210,10 +9201,10 @@
     </row>
     <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>7</v>
@@ -9311,10 +9302,10 @@
     </row>
     <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>7</v>
@@ -9412,13 +9403,13 @@
     </row>
     <row r="25" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="13">
         <v>25</v>
@@ -9513,13 +9504,13 @@
     </row>
     <row r="26" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="13">
         <v>25</v>
@@ -9614,13 +9605,13 @@
     </row>
     <row r="27" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="13">
         <v>25</v>
@@ -9715,13 +9706,13 @@
     </row>
     <row r="28" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="D28" s="13">
         <v>25</v>
@@ -9816,13 +9807,13 @@
     </row>
     <row r="29" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="13">
         <v>25</v>
@@ -9917,13 +9908,13 @@
     </row>
     <row r="30" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="13">
         <v>25</v>
@@ -10018,13 +10009,13 @@
     </row>
     <row r="31" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" s="13">
         <v>25</v>
@@ -10119,13 +10110,13 @@
     </row>
     <row r="32" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="13">
         <v>25</v>
@@ -10220,13 +10211,13 @@
     </row>
     <row r="33" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="13">
         <v>25</v>
@@ -10321,13 +10312,13 @@
     </row>
     <row r="34" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="13">
         <v>25</v>
@@ -10422,7 +10413,7 @@
     </row>
     <row r="35" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>6</v>
@@ -10523,10 +10514,10 @@
     </row>
     <row r="36" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>7</v>
@@ -10624,10 +10615,10 @@
     </row>
     <row r="37" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>7</v>
@@ -10725,10 +10716,10 @@
     </row>
     <row r="38" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>7</v>
@@ -10826,10 +10817,10 @@
     </row>
     <row r="39" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>7</v>
@@ -10927,10 +10918,10 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>7</v>
@@ -11028,13 +11019,13 @@
     </row>
     <row r="41" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="13">
         <v>25</v>
@@ -11129,13 +11120,13 @@
     </row>
     <row r="42" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="13">
         <v>25</v>
@@ -11230,13 +11221,13 @@
     </row>
     <row r="43" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="13">
         <v>25</v>
@@ -11331,13 +11322,13 @@
     </row>
     <row r="44" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="D44" s="13">
         <v>25</v>
@@ -11432,13 +11423,13 @@
     </row>
     <row r="45" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" s="13">
         <v>25</v>
@@ -11533,13 +11524,13 @@
     </row>
     <row r="46" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" s="13">
         <v>25</v>
@@ -11634,13 +11625,13 @@
     </row>
     <row r="47" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" s="13">
         <v>25</v>
@@ -11735,13 +11726,13 @@
     </row>
     <row r="48" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="13">
         <v>25</v>
@@ -11836,13 +11827,13 @@
     </row>
     <row r="49" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" s="13">
         <v>25</v>
@@ -11937,13 +11928,13 @@
     </row>
     <row r="50" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" s="13">
         <v>25</v>
@@ -12038,7 +12029,7 @@
     </row>
     <row r="51" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>6</v>
@@ -12139,10 +12130,10 @@
     </row>
     <row r="52" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>7</v>
@@ -12240,10 +12231,10 @@
     </row>
     <row r="53" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>7</v>
@@ -12341,10 +12332,10 @@
     </row>
     <row r="54" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>7</v>
@@ -12442,10 +12433,10 @@
     </row>
     <row r="55" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>7</v>
@@ -12543,10 +12534,10 @@
     </row>
     <row r="56" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>7</v>
@@ -12644,13 +12635,13 @@
     </row>
     <row r="57" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="13">
         <v>25</v>
@@ -12745,13 +12736,13 @@
     </row>
     <row r="58" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="13">
         <v>25</v>
@@ -12846,13 +12837,13 @@
     </row>
     <row r="59" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="13">
         <v>25</v>
@@ -12947,13 +12938,13 @@
     </row>
     <row r="60" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="13">
         <v>25</v>
@@ -13048,13 +13039,13 @@
     </row>
     <row r="61" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="D61" s="13">
         <v>25</v>
@@ -13149,13 +13140,13 @@
     </row>
     <row r="62" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D62" s="13">
         <v>25</v>
@@ -13250,13 +13241,13 @@
     </row>
     <row r="63" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63" s="13">
         <v>25</v>
@@ -13351,13 +13342,13 @@
     </row>
     <row r="64" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="13">
         <v>25</v>
@@ -13452,13 +13443,13 @@
     </row>
     <row r="65" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D65" s="13">
         <v>25</v>
@@ -13553,13 +13544,13 @@
     </row>
     <row r="66" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" s="13">
         <v>25</v>
@@ -13654,13 +13645,13 @@
     </row>
     <row r="67" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" s="13">
         <v>25</v>
@@ -13784,10 +13775,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -13853,141 +13844,141 @@
     <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="G3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="K3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="V3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="X3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="18" t="s">
+      <c r="Y3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="Z3" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AA3" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
@@ -14000,7 +13991,7 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -14010,19 +14001,19 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -14039,7 +14030,7 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -14051,19 +14042,19 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
@@ -14078,7 +14069,7 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -14090,19 +14081,19 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
@@ -14117,7 +14108,7 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -14136,10 +14127,10 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S8" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -14152,7 +14143,7 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -14171,10 +14162,10 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
@@ -14187,7 +14178,7 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -14198,43 +14189,43 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -14244,7 +14235,7 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -14260,28 +14251,28 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
@@ -14291,7 +14282,7 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -14309,22 +14300,22 @@
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R12" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S12" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T12" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V12" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
@@ -14334,7 +14325,7 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -14355,16 +14346,16 @@
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
       <c r="T13" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U13" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V13" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W13" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
@@ -14373,7 +14364,7 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -14391,28 +14382,28 @@
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R14" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S14" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T14" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V14" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X14" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
@@ -14420,7 +14411,7 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -14443,22 +14434,22 @@
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W15" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X15" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y15" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Z15" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA15" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
